--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>16.59502996880333</v>
+        <v>4.901647840660666</v>
       </c>
       <c r="R2">
-        <v>149.35526971923</v>
+        <v>44.114830565946</v>
       </c>
       <c r="S2">
-        <v>0.001149241940176087</v>
+        <v>0.0002779129789079086</v>
       </c>
       <c r="T2">
-        <v>0.001149241940176088</v>
+        <v>0.0002779129789079085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H3">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I3">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J3">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>831.4081723227007</v>
+        <v>332.2184103498446</v>
       </c>
       <c r="R3">
-        <v>7482.673550904306</v>
+        <v>2989.965693148602</v>
       </c>
       <c r="S3">
-        <v>0.05757682528049665</v>
+        <v>0.01883607535051537</v>
       </c>
       <c r="T3">
-        <v>0.05757682528049666</v>
+        <v>0.01883607535051537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H4">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I4">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J4">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>155.4699745948833</v>
+        <v>106.260163214072</v>
       </c>
       <c r="R4">
-        <v>1399.22977135395</v>
+        <v>956.3414689266478</v>
       </c>
       <c r="S4">
-        <v>0.01076663408131434</v>
+        <v>0.006024724635069454</v>
       </c>
       <c r="T4">
-        <v>0.01076663408131434</v>
+        <v>0.006024724635069451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H5">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I5">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J5">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>1.450821139664</v>
+        <v>0.9866430500779999</v>
       </c>
       <c r="R5">
-        <v>13.057390256976</v>
+        <v>8.879787450701999</v>
       </c>
       <c r="S5">
-        <v>0.0001004725212627121</v>
+        <v>5.59405567432612E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001004725212627121</v>
+        <v>5.594055674326118E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>196.3622934883172</v>
+        <v>145.1485675859681</v>
       </c>
       <c r="R6">
-        <v>1767.260641394855</v>
+        <v>1306.337108273713</v>
       </c>
       <c r="S6">
-        <v>0.01359851615635334</v>
+        <v>0.008229614226344597</v>
       </c>
       <c r="T6">
-        <v>0.01359851615635334</v>
+        <v>0.008229614226344596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>9837.717427996187</v>
@@ -883,10 +883,10 @@
         <v>88539.45685196569</v>
       </c>
       <c r="S7">
-        <v>0.6812833411634819</v>
+        <v>0.5577775974416317</v>
       </c>
       <c r="T7">
-        <v>0.681283341163482</v>
+        <v>0.5577775974416316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>1839.613476891064</v>
+        <v>3146.597018666049</v>
       </c>
       <c r="R8">
-        <v>16556.52129201957</v>
+        <v>28319.37316799444</v>
       </c>
       <c r="S8">
-        <v>0.1273972367227257</v>
+        <v>0.1784053402666233</v>
       </c>
       <c r="T8">
-        <v>0.1273972367227257</v>
+        <v>0.1784053402666233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>17.16698113599734</v>
+        <v>29.21666959619233</v>
       </c>
       <c r="R9">
-        <v>154.502830223976</v>
+        <v>262.950026365731</v>
       </c>
       <c r="S9">
-        <v>0.001188850803209639</v>
+        <v>0.001656522856230227</v>
       </c>
       <c r="T9">
-        <v>0.001188850803209639</v>
+        <v>0.001656522856230227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H10">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>25.287368424465</v>
+        <v>44.36334394157022</v>
       </c>
       <c r="R10">
-        <v>227.586315820185</v>
+        <v>399.2700954741321</v>
       </c>
       <c r="S10">
-        <v>0.001751205294881146</v>
+        <v>0.002515306988568995</v>
       </c>
       <c r="T10">
-        <v>0.001751205294881146</v>
+        <v>0.002515306988568995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H11">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>1266.892847084823</v>
+        <v>3006.809155038231</v>
       </c>
       <c r="R11">
-        <v>11402.03562376341</v>
+        <v>27061.28239534409</v>
       </c>
       <c r="S11">
-        <v>0.08773508672873816</v>
+        <v>0.1704796665220275</v>
       </c>
       <c r="T11">
-        <v>0.08773508672873817</v>
+        <v>0.1704796665220274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H12">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>236.903852172225</v>
+        <v>961.7288555184907</v>
       </c>
       <c r="R12">
-        <v>2132.134669550025</v>
+        <v>8655.559699666417</v>
       </c>
       <c r="S12">
-        <v>0.01640610732354282</v>
+        <v>0.05452797504579858</v>
       </c>
       <c r="T12">
-        <v>0.01640610732354282</v>
+        <v>0.05452797504579857</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H13">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>2.210749166808001</v>
+        <v>8.929810219142666</v>
       </c>
       <c r="R13">
-        <v>19.896742501272</v>
+        <v>80.368291972284</v>
       </c>
       <c r="S13">
-        <v>0.0001530991909313379</v>
+        <v>0.0005063011949772642</v>
       </c>
       <c r="T13">
-        <v>0.0001530991909313379</v>
+        <v>0.0005063011949772641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H14">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I14">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J14">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>0.2130340291594445</v>
+        <v>0.1375519034515556</v>
       </c>
       <c r="R14">
-        <v>1.917306262435</v>
+        <v>1.237967131064</v>
       </c>
       <c r="S14">
-        <v>1.475307013334569E-05</v>
+        <v>7.798899571194482E-06</v>
       </c>
       <c r="T14">
-        <v>1.47530701333457E-05</v>
+        <v>7.798899571194481E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H15">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I15">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J15">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>10.67296854292856</v>
+        <v>9.32283921464089</v>
       </c>
       <c r="R15">
-        <v>96.05671688635702</v>
+        <v>83.905552931768</v>
       </c>
       <c r="S15">
-        <v>0.0007391262985828794</v>
+        <v>0.0005285851008160345</v>
       </c>
       <c r="T15">
-        <v>0.0007391262985828796</v>
+        <v>0.0005285851008160344</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H16">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I16">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J16">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>1.995802066252778</v>
+        <v>2.981913059914667</v>
       </c>
       <c r="R16">
-        <v>17.962218596275</v>
+        <v>26.837217539232</v>
       </c>
       <c r="S16">
-        <v>0.0001382136364405242</v>
+        <v>0.0001690681110239825</v>
       </c>
       <c r="T16">
-        <v>0.0001382136364405242</v>
+        <v>0.0001690681110239825</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H17">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I17">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J17">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>0.01862450827466667</v>
+        <v>0.02768755201866667</v>
       </c>
       <c r="R17">
-        <v>0.167620574472</v>
+        <v>0.249187968168</v>
       </c>
       <c r="S17">
-        <v>1.289787729497362E-06</v>
+        <v>1.569825150706502E-06</v>
       </c>
       <c r="T17">
-        <v>1.289787729497362E-06</v>
+        <v>1.569825150706501E-06</v>
       </c>
     </row>
   </sheetData>
